--- a/server/tomcat/web/excel/test.xlsx
+++ b/server/tomcat/web/excel/test.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30805929-743C-4C68-AA19-58C44385F5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13817" yWindow="-8331" windowWidth="13920" windowHeight="21428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="CPU" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
   <si>
     <t>Processor</t>
   </si>
@@ -28,6 +22,9 @@
     <t>Generation</t>
   </si>
   <si>
+    <t>IGPU</t>
+  </si>
+  <si>
     <t>Socket</t>
   </si>
   <si>
@@ -46,31 +43,61 @@
     <t>TDP</t>
   </si>
   <si>
-    <t>IGPU</t>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>cost</t>
   </si>
   <si>
     <t>sell</t>
   </si>
   <si>
-    <t>cost</t>
+    <t>AMD Ryzen 5 550</t>
+  </si>
+  <si>
+    <t>Zen3</t>
+  </si>
+  <si>
+    <t>Radeon Vega 7</t>
+  </si>
+  <si>
+    <t>AM4</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 5 560</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 3 5300</t>
+  </si>
+  <si>
+    <t>Zen 3</t>
+  </si>
+  <si>
+    <t>Radeon Vega 6</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 3 5600</t>
   </si>
   <si>
     <t>AMD Ryzen 5 5500</t>
   </si>
   <si>
-    <t>Zen3</t>
-  </si>
-  <si>
-    <t>AM4</t>
-  </si>
-  <si>
-    <t>Radeon Vega 7</t>
-  </si>
-  <si>
-    <t>Zen 3</t>
-  </si>
-  <si>
-    <t>Radeon Vega 6</t>
+    <t>AMD Ryzen 5 5600G</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 7 5700</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 7 5800</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 9 5900</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 9 5950</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 5 7600</t>
   </si>
   <si>
     <t>Zen 4</t>
@@ -79,130 +106,446 @@
     <t>AM5</t>
   </si>
   <si>
+    <t>AMD Ryzen 7 7700</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 7 7800</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 9 7900</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 9 7950</t>
+  </si>
+  <si>
+    <t>Intel Core i5-13600</t>
+  </si>
+  <si>
+    <t>Raptor Lake</t>
+  </si>
+  <si>
+    <t>Intel UHD Graphics 770</t>
+  </si>
+  <si>
+    <t>LGA 1700</t>
+  </si>
+  <si>
     <t>Intel Core i5-13600K</t>
   </si>
   <si>
-    <t>Raptor Lake</t>
-  </si>
-  <si>
-    <t>LGA 1700</t>
-  </si>
-  <si>
-    <t>Intel UHD Graphics 770</t>
+    <t>Intel Core i7-13700</t>
   </si>
   <si>
     <t>Intel Core i7-13700K</t>
   </si>
   <si>
+    <t>Intel Core i9-13900</t>
+  </si>
+  <si>
     <t>Intel Core i9-13900K</t>
   </si>
   <si>
+    <t>Intel Core i7-14700</t>
+  </si>
+  <si>
+    <t>Intel Core i9-14900</t>
+  </si>
+  <si>
     <t>Intel Core i9-14900K</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 5 550</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 5 560</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 3 5300</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 3 5600</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 5 5600G</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 7 5700</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 7 5800</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 9 5900</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 9 5950</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 5 7600</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 7 7700</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 7 7800</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 9 7900</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 9 7950</t>
-  </si>
-  <si>
-    <t>Intel Core i5-13600</t>
-  </si>
-  <si>
-    <t>Intel Core i7-13700</t>
-  </si>
-  <si>
-    <t>Intel Core i9-13900</t>
-  </si>
-  <si>
-    <t>Intel Core i7-14700</t>
-  </si>
-  <si>
-    <t>Intel Core i9-14900</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="###0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="###0"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF111111"/>
       <name val="-apple-system"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF111111"/>
       <name val="-apple-system"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -210,36 +553,322 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -437,29 +1066,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6095238095238" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.15234375" customWidth="1"/>
-    <col min="9" max="9" width="24.15234375" customWidth="1"/>
-    <col min="13" max="13" width="51.765625" customWidth="1"/>
+    <col min="1" max="1" width="27.152380952381" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="9" max="9" width="9.14285714285714" customWidth="1"/>
+    <col min="13" max="13" width="51.7619047619048" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" customHeight="1">
+    <row r="1" customHeight="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,960 +1116,1040 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2"/>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-    </row>
-    <row r="2" spans="1:23" ht="15">
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+    </row>
+    <row r="2" ht="21" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3</v>
-      </c>
       <c r="G2" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" s="1">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1">
         <v>65</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="4">
+      <c r="J2">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2">
+        <v>4500000</v>
+      </c>
+      <c r="L2" s="2">
         <v>5200000</v>
-      </c>
-      <c r="K2" s="4">
-        <v>4500000</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:23" ht="15">
+    <row r="3" ht="21" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3</v>
-      </c>
       <c r="G3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" s="1">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1">
         <v>65</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="J3">
+        <v>15</v>
+      </c>
+      <c r="K3" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="L3" s="2">
         <v>5800000</v>
-      </c>
-      <c r="K3" s="4">
-        <v>5000000</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:23" ht="15">
+    <row r="4" ht="21" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
         <v>8</v>
       </c>
-      <c r="F4" s="1">
-        <v>3</v>
-      </c>
       <c r="G4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1">
         <v>65</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="J4">
+        <v>15</v>
+      </c>
+      <c r="K4" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="L4" s="2">
         <v>3500000</v>
-      </c>
-      <c r="K4" s="4">
-        <v>3000000</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:23" ht="15">
+    <row r="5" ht="21" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1">
         <v>6</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>12</v>
       </c>
-      <c r="F5" s="1">
-        <v>3</v>
-      </c>
       <c r="G5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1">
         <v>65</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="J5">
+        <v>15</v>
+      </c>
+      <c r="K5" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="L5" s="2">
         <v>4500000</v>
-      </c>
-      <c r="K5" s="4">
-        <v>4000000</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:23" ht="15">
+    <row r="6" ht="21" spans="1:23">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1">
         <v>6</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>12</v>
       </c>
-      <c r="F6" s="1">
-        <v>3</v>
-      </c>
       <c r="G6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1">
         <v>65</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="J6">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2">
+        <v>4500000</v>
+      </c>
+      <c r="L6" s="2">
         <v>5000000</v>
-      </c>
-      <c r="K6" s="4">
-        <v>4500000</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="W6" s="6"/>
     </row>
-    <row r="7" spans="1:23" ht="15">
+    <row r="7" ht="21" spans="1:23">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1">
         <v>6</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>12</v>
       </c>
-      <c r="F7" s="1">
-        <v>3</v>
-      </c>
       <c r="G7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" s="1">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1">
         <v>46</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="J7">
+        <v>15</v>
+      </c>
+      <c r="K7" s="2">
+        <v>4200000</v>
+      </c>
+      <c r="L7" s="2">
         <v>4700000</v>
       </c>
-      <c r="K7" s="4">
-        <v>4200000</v>
-      </c>
-      <c r="M7" s="2"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
       <c r="W7" s="6"/>
     </row>
-    <row r="8" spans="1:23" ht="15">
+    <row r="8" ht="21" spans="1:23">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1">
         <v>8</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>16</v>
       </c>
-      <c r="F8" s="1">
-        <v>3</v>
-      </c>
       <c r="G8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" s="1">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1">
         <v>65</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8">
+        <v>15</v>
+      </c>
+      <c r="K8" s="2">
+        <v>6500000</v>
+      </c>
+      <c r="L8" s="2">
         <v>7500000</v>
-      </c>
-      <c r="K8" s="4">
-        <v>6500000</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="W8" s="6"/>
     </row>
-    <row r="9" spans="1:23" ht="15">
+    <row r="9" ht="21" spans="1:23">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1">
         <v>8</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>16</v>
       </c>
-      <c r="F9" s="1">
-        <v>3</v>
-      </c>
       <c r="G9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9" s="1">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1">
         <v>105</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9">
+        <v>15</v>
+      </c>
+      <c r="K9" s="2">
+        <v>7800000</v>
+      </c>
+      <c r="L9" s="2">
         <v>9000000</v>
-      </c>
-      <c r="K9" s="4">
-        <v>7800000</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="W9" s="6"/>
     </row>
-    <row r="10" spans="1:23" ht="15">
+    <row r="10" ht="21" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1">
         <v>12</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>24</v>
       </c>
-      <c r="F10" s="1">
-        <v>3</v>
-      </c>
       <c r="G10" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10" s="1">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1">
         <v>105</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10">
+        <v>15</v>
+      </c>
+      <c r="K10" s="2">
+        <v>9000000</v>
+      </c>
+      <c r="L10" s="2">
         <v>10500000</v>
-      </c>
-      <c r="K10" s="4">
-        <v>9000000</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:23" ht="15">
+    <row r="11" ht="21" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1">
         <v>16</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>32</v>
       </c>
-      <c r="F11" s="1">
-        <v>3</v>
-      </c>
       <c r="G11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" s="1">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1">
         <v>105</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11">
+        <v>15</v>
+      </c>
+      <c r="K11" s="2">
+        <v>10500000</v>
+      </c>
+      <c r="L11" s="2">
         <v>12000000</v>
-      </c>
-      <c r="K11" s="4">
-        <v>10500000</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:23" ht="15">
+    <row r="12" ht="21" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="1">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1">
         <v>6</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>12</v>
       </c>
-      <c r="F12" s="1">
-        <v>3</v>
-      </c>
       <c r="G12" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12" s="1">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1">
         <v>105</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="L12" s="2">
         <v>5500000</v>
-      </c>
-      <c r="K12" s="4">
-        <v>5000000</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:23" ht="15">
+    <row r="13" ht="21" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1">
         <v>8</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>16</v>
       </c>
-      <c r="F13" s="1">
-        <v>3</v>
-      </c>
       <c r="G13" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13" s="1">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1">
         <v>105</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13">
+        <v>15</v>
+      </c>
+      <c r="K13" s="2">
+        <v>8500000</v>
+      </c>
+      <c r="L13" s="2">
         <v>9500000</v>
-      </c>
-      <c r="K13" s="4">
-        <v>8500000</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:23" ht="15">
+    <row r="14" ht="21" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="1">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1">
         <v>8</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>16</v>
       </c>
-      <c r="F14" s="1">
-        <v>3</v>
-      </c>
       <c r="G14" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" s="1">
+        <v>4</v>
+      </c>
+      <c r="I14" s="1">
         <v>170</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14">
+        <v>15</v>
+      </c>
+      <c r="K14" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="L14" s="2">
         <v>11000000</v>
-      </c>
-      <c r="K14" s="4">
-        <v>10000000</v>
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="1:23" ht="15">
+    <row r="15" ht="21" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="1">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="1">
         <v>12</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>24</v>
       </c>
-      <c r="F15" s="1">
-        <v>3</v>
-      </c>
       <c r="G15" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15" s="1">
+        <v>4</v>
+      </c>
+      <c r="I15" s="1">
         <v>170</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15">
+        <v>15</v>
+      </c>
+      <c r="K15" s="2">
+        <v>11500000</v>
+      </c>
+      <c r="L15" s="2">
         <v>13000000</v>
-      </c>
-      <c r="K15" s="4">
-        <v>11500000</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="1:23" ht="15">
+    <row r="16" ht="21" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="1">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1">
         <v>16</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>32</v>
       </c>
-      <c r="F16" s="1">
-        <v>3</v>
-      </c>
       <c r="G16" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16" s="1">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1">
         <v>170</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="K16" s="2">
+        <v>12500000</v>
+      </c>
+      <c r="L16" s="2">
         <v>14000000</v>
-      </c>
-      <c r="K16" s="4">
-        <v>12500000</v>
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="1:15" ht="15">
+    <row r="17" ht="21" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="1">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1">
         <v>20</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="1">
-        <v>14</v>
-      </c>
-      <c r="E17" s="1">
-        <v>20</v>
-      </c>
-      <c r="F17" s="1">
-        <v>3</v>
-      </c>
       <c r="G17" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H17" s="1">
+        <v>4</v>
+      </c>
+      <c r="I17" s="1">
         <v>125</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="4">
+      <c r="J17">
+        <v>15</v>
+      </c>
+      <c r="K17" s="2">
+        <v>6000000</v>
+      </c>
+      <c r="L17" s="2">
         <v>7000000</v>
-      </c>
-      <c r="K17" s="4">
-        <v>6000000</v>
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="1:15" ht="15">
+    <row r="18" ht="21" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1">
+        <v>14</v>
+      </c>
+      <c r="F18" s="1">
         <v>20</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="1">
-        <v>14</v>
-      </c>
-      <c r="E18" s="1">
-        <v>20</v>
-      </c>
-      <c r="F18" s="1">
-        <v>3</v>
-      </c>
       <c r="G18" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H18" s="1">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1">
         <v>125</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18">
+        <v>15</v>
+      </c>
+      <c r="K18" s="2">
+        <v>5500000</v>
+      </c>
+      <c r="L18" s="2">
         <v>6500000</v>
-      </c>
-      <c r="K18" s="4">
-        <v>5500000</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="1:15" ht="15">
+    <row r="19" ht="21" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="1">
+        <v>36</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="1">
         <v>16</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>24</v>
       </c>
-      <c r="F19" s="1">
-        <v>3</v>
-      </c>
       <c r="G19" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H19" s="1">
+        <v>4</v>
+      </c>
+      <c r="I19" s="1">
         <v>125</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" s="4">
+      <c r="J19">
+        <v>15</v>
+      </c>
+      <c r="K19" s="2">
+        <v>7500000</v>
+      </c>
+      <c r="L19" s="2">
         <v>8500000</v>
-      </c>
-      <c r="K19" s="4">
-        <v>7500000</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="1:15" ht="15">
+    <row r="20" ht="21" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="1">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="1">
         <v>16</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>24</v>
       </c>
-      <c r="F20" s="1">
-        <v>3</v>
-      </c>
       <c r="G20" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20" s="1">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1">
         <v>125</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20">
+        <v>15</v>
+      </c>
+      <c r="K20" s="2">
+        <v>7000000</v>
+      </c>
+      <c r="L20" s="2">
         <v>8000000</v>
-      </c>
-      <c r="K20" s="4">
-        <v>7000000</v>
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="1:15" ht="15">
+    <row r="21" ht="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="1">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="1">
         <v>24</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>32</v>
       </c>
-      <c r="F21" s="1">
-        <v>3</v>
-      </c>
       <c r="G21" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H21" s="1">
+        <v>4</v>
+      </c>
+      <c r="I21" s="1">
         <v>125</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" s="4">
+      <c r="J21">
+        <v>15</v>
+      </c>
+      <c r="K21" s="2">
+        <v>9500000</v>
+      </c>
+      <c r="L21" s="2">
         <v>11000000</v>
-      </c>
-      <c r="K21" s="4">
-        <v>9500000</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="1:15" ht="15">
+    <row r="22" ht="21" spans="1:15">
       <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="1">
         <v>24</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="1">
-        <v>24</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>32</v>
       </c>
-      <c r="F22" s="1">
-        <v>3</v>
-      </c>
       <c r="G22" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22" s="1">
+        <v>4</v>
+      </c>
+      <c r="I22" s="1">
         <v>125</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22">
+        <v>15</v>
+      </c>
+      <c r="K22" s="2">
+        <v>9000000</v>
+      </c>
+      <c r="L22" s="2">
         <v>10500000</v>
-      </c>
-      <c r="K22" s="4">
-        <v>9000000</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="1:15" ht="15">
+    <row r="23" ht="21" spans="1:15">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="1">
         <v>20</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="1">
-        <v>20</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>28</v>
       </c>
-      <c r="F23" s="1">
-        <v>3</v>
-      </c>
       <c r="G23" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23" s="1">
+        <v>4</v>
+      </c>
+      <c r="I23" s="1">
         <v>125</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="4">
+      <c r="J23">
+        <v>15</v>
+      </c>
+      <c r="K23" s="2">
+        <v>8200000</v>
+      </c>
+      <c r="L23" s="2">
         <v>9700000</v>
-      </c>
-      <c r="K23" s="4">
-        <v>8200000</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="1:15" ht="15">
+    <row r="24" ht="21" spans="1:15">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="1">
         <v>20</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="1">
-        <v>20</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>28</v>
       </c>
-      <c r="F24" s="1">
-        <v>3</v>
-      </c>
       <c r="G24" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H24" s="1">
+        <v>4</v>
+      </c>
+      <c r="I24" s="1">
         <v>125</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="4">
+      <c r="J24">
+        <v>15</v>
+      </c>
+      <c r="K24" s="2">
+        <v>8700000</v>
+      </c>
+      <c r="L24" s="2">
         <v>10200000</v>
-      </c>
-      <c r="K24" s="4">
-        <v>8700000</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="1:15" ht="15">
+    <row r="25" ht="21" spans="1:15">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="1">
+        <v>36</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="1">
         <v>24</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>32</v>
       </c>
-      <c r="F25" s="1">
-        <v>3</v>
-      </c>
       <c r="G25" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25" s="1">
+        <v>4</v>
+      </c>
+      <c r="I25" s="1">
         <v>125</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="4">
+      <c r="J25">
+        <v>15</v>
+      </c>
+      <c r="K25" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="L25" s="2">
         <v>11500000</v>
-      </c>
-      <c r="K25" s="4">
-        <v>10000000</v>
       </c>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="1:15" ht="15">
+    <row r="26" ht="21" spans="1:15">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="1">
+        <v>36</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="1">
         <v>24</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>32</v>
       </c>
-      <c r="F26" s="1">
-        <v>3</v>
-      </c>
       <c r="G26" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H26" s="1">
+        <v>4</v>
+      </c>
+      <c r="I26" s="1">
         <v>125</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" s="4">
+      <c r="J26">
+        <v>15</v>
+      </c>
+      <c r="K26" s="2">
+        <v>10500000</v>
+      </c>
+      <c r="L26" s="2">
         <v>12000000</v>
-      </c>
-      <c r="K26" s="4">
-        <v>10500000</v>
       </c>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="1:15" ht="15">
+    <row r="27" ht="21" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="1">
+        <v>35</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="1">
         <v>24</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>32</v>
       </c>
-      <c r="F27" s="1">
-        <v>3</v>
-      </c>
       <c r="G27" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H27" s="1">
+        <v>4</v>
+      </c>
+      <c r="I27" s="1">
         <v>125</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27">
+        <v>15</v>
+      </c>
+      <c r="K27" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="L27" s="2">
         <v>11500000</v>
-      </c>
-      <c r="K27" s="4">
-        <v>10000000</v>
       </c>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>